--- a/quiz excel sheet .xlsx
+++ b/quiz excel sheet .xlsx
@@ -543,34 +543,34 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
